--- a/tabelas_template/LCD SAMSUNG.xlsx
+++ b/tabelas_template/LCD SAMSUNG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E016D7BC-BAB8-4555-9C0E-C2FDB1BB0353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE62D46-E963-4F79-B94F-8C63212B57EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1770" windowWidth="10965" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LCD SAMSUNG</t>
   </si>
@@ -33,13 +33,7 @@
     <t>G530 / G531 / G532</t>
   </si>
   <si>
-    <t>R$ 40,00</t>
-  </si>
-  <si>
     <t>G360 / G355</t>
-  </si>
-  <si>
-    <t>R$ 30,00</t>
   </si>
   <si>
     <t>i9082</t>
@@ -49,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -109,6 +106,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,24 +420,24 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
